--- a/code/accidents_at_work/type_of_injury_11.xlsx
+++ b/code/accidents_at_work/type_of_injury_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>number_of_working_accidents</t>
   </si>
@@ -22,10 +22,16 @@
     <t>type_of_wound</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>23.02</t>
   </si>
   <si>
     <t>Rupture</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t>2.36</t>
@@ -119,11 +125,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -162,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -234,7 +245,7 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -242,6 +253,21 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,14 +290,29 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -279,29 +320,14 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,53 +337,59 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -516,13 +548,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -612,19 +638,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -879,13 +905,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1189,19 +1209,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1452,16 +1472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.2031" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.4531" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -1474,174 +1495,225 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" s="5">
         <v>1211</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s" s="7">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>124</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="10">
+      <c r="B3" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>1206</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>8</v>
+      <c r="B4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>165</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>10</v>
+      <c r="B5" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="13.2" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>31</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>12</v>
+      <c r="B6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="13.2" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>1759</v>
       </c>
-      <c r="B7" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>14</v>
+      <c r="B7" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="13.2" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>96</v>
       </c>
-      <c r="B8" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>16</v>
+      <c r="B8" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>436</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>18</v>
+      <c r="B9" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="75.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>20</v>
+      <c r="B10" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.2" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>22</v>
+      <c r="B11" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="13.2" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>167</v>
       </c>
-      <c r="B12" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>24</v>
+      <c r="B12" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="13" ht="13.2" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>0</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>26</v>
+      <c r="B13" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>28</v>
+      <c r="B14" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>1</v>
       </c>
-      <c r="B15" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>30</v>
+      <c r="B15" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>43</v>
       </c>
-      <c r="B16" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="15">
-        <v>32</v>
+      <c r="B16" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.590551" right="0.590551" top="1.41732" bottom="0.19685" header="0.11811" footer="0.11811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="85" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>